--- a/public/import/test.xlsx
+++ b/public/import/test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Petro\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Registered_clients" sheetId="1" r:id="rId1"/>
@@ -51,9 +46,6 @@
     <t>Алексей</t>
   </si>
   <si>
-    <t>Ткачук</t>
-  </si>
-  <si>
     <t>380971472797</t>
   </si>
   <si>
@@ -880,12 +872,15 @@
   </si>
   <si>
     <t>92587904</t>
+  </si>
+  <si>
+    <t>ткачук</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy\ hh:mm"/>
   </numFmts>
@@ -982,7 +977,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1034,7 +1029,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1228,7 +1223,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1238,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1268,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1281,22 +1276,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
       </c>
       <c r="H2" s="1">
         <v>42609.625</v>
@@ -1305,30 +1300,30 @@
         <v>42609.645833333336</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
       </c>
       <c r="H3" s="1">
         <v>42609.645833333336</v>
@@ -1337,30 +1332,30 @@
         <v>42609.666666666664</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1">
         <v>42609.625</v>
@@ -1369,30 +1364,30 @@
         <v>42609.645833333336</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1">
         <v>42609.75</v>
@@ -1401,30 +1396,30 @@
         <v>42609.770833333336</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
       </c>
       <c r="H6" s="1">
         <v>42609.625</v>
@@ -1433,30 +1428,30 @@
         <v>42609.645833333336</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1">
         <v>42609.791666666664</v>
@@ -1465,30 +1460,30 @@
         <v>42609.8125</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
         <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
       </c>
       <c r="H8" s="1">
         <v>42609.666666666664</v>
@@ -1497,30 +1492,30 @@
         <v>42609.6875</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1">
         <v>42609.583333333336</v>
@@ -1529,30 +1524,30 @@
         <v>42609.604166666664</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="1">
         <v>42609.708333333336</v>
@@ -1561,30 +1556,30 @@
         <v>42609.729166666664</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>53</v>
       </c>
       <c r="H11" s="1">
         <v>42609.625</v>
@@ -1593,30 +1588,30 @@
         <v>42609.645833333336</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
         <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
       </c>
       <c r="H12" s="1">
         <v>42609.708333333336</v>
@@ -1625,30 +1620,30 @@
         <v>42609.729166666664</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="1">
         <v>42609.583333333336</v>
@@ -1657,30 +1652,30 @@
         <v>42609.604166666664</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1">
         <v>42609.625</v>
@@ -1689,30 +1684,30 @@
         <v>42609.645833333336</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
         <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>68</v>
       </c>
       <c r="H15" s="1">
         <v>42609.625</v>
@@ -1721,30 +1716,30 @@
         <v>42609.645833333336</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
         <v>69</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>70</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
         <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
       </c>
       <c r="H16" s="1">
         <v>42609.75</v>
@@ -1753,27 +1748,27 @@
         <v>42609.770833333336</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>74</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>75</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
         <v>76</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>77</v>
       </c>
       <c r="H17" s="1">
         <v>42609.75</v>
@@ -1782,30 +1777,30 @@
         <v>42609.770833333336</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>79</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>80</v>
       </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" s="1">
         <v>42609.708333333336</v>
@@ -1814,30 +1809,30 @@
         <v>42609.729166666664</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>83</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>84</v>
       </c>
-      <c r="D19" t="s">
-        <v>85</v>
-      </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="1">
         <v>42609.708333333336</v>
@@ -1846,30 +1841,30 @@
         <v>42609.729166666664</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
         <v>86</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>87</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>88</v>
       </c>
-      <c r="D20" t="s">
-        <v>89</v>
-      </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20" s="1">
         <v>42609.708333333336</v>
@@ -1878,27 +1873,27 @@
         <v>42609.729166666664</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
         <v>90</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>91</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>92</v>
       </c>
-      <c r="D21" t="s">
-        <v>93</v>
-      </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" s="1">
         <v>42609.75</v>
@@ -1907,30 +1902,30 @@
         <v>42609.770833333336</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
         <v>94</v>
       </c>
-      <c r="B22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>95</v>
       </c>
-      <c r="D22" t="s">
-        <v>96</v>
-      </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="1">
         <v>42609.645833333336</v>
@@ -1939,30 +1934,30 @@
         <v>42609.666666666664</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
         <v>97</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>98</v>
       </c>
-      <c r="D23" t="s">
-        <v>99</v>
-      </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" s="1">
         <v>42609.604166666664</v>
@@ -1971,30 +1966,30 @@
         <v>42609.625</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
         <v>100</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>101</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>102</v>
       </c>
-      <c r="D24" t="s">
-        <v>103</v>
-      </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
         <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
       </c>
       <c r="H24" s="1">
         <v>42609.708333333336</v>
@@ -2003,30 +1998,30 @@
         <v>42609.729166666664</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
         <v>104</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>105</v>
       </c>
-      <c r="C25" t="s">
-        <v>106</v>
-      </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
         <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
       </c>
       <c r="H25" s="1">
         <v>42609.770833333336</v>
@@ -2035,30 +2030,30 @@
         <v>42609.791666666664</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
         <v>107</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>108</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>109</v>
       </c>
-      <c r="D26" t="s">
-        <v>110</v>
-      </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" s="1">
         <v>42609.666666666664</v>
@@ -2067,30 +2062,30 @@
         <v>42609.6875</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
         <v>111</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>112</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>113</v>
       </c>
-      <c r="D27" t="s">
-        <v>114</v>
-      </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27" s="1">
         <v>42609.729166666664</v>
@@ -2099,30 +2094,30 @@
         <v>42609.75</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>116</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>117</v>
       </c>
-      <c r="D28" t="s">
-        <v>118</v>
-      </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H28" s="1">
         <v>42609.666666666664</v>
@@ -2131,30 +2126,30 @@
         <v>42609.6875</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
         <v>119</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>120</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>121</v>
       </c>
-      <c r="D29" t="s">
-        <v>122</v>
-      </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" s="1">
         <v>42609.645833333336</v>
@@ -2163,30 +2158,30 @@
         <v>42609.666666666664</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
         <v>123</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>125</v>
       </c>
-      <c r="D30" t="s">
-        <v>126</v>
-      </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H30" s="1">
         <v>42609.666666666664</v>
@@ -2195,30 +2190,30 @@
         <v>42609.6875</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
         <v>127</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>128</v>
       </c>
-      <c r="D31" t="s">
-        <v>129</v>
-      </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
         <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
       </c>
       <c r="H31" s="1">
         <v>42609.75</v>
@@ -2227,30 +2222,30 @@
         <v>42609.770833333336</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
         <v>130</v>
       </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>131</v>
       </c>
-      <c r="D32" t="s">
-        <v>132</v>
-      </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H32" s="1">
         <v>42609.75</v>
@@ -2259,27 +2254,27 @@
         <v>42609.770833333336</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" t="s">
         <v>133</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>134</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>135</v>
       </c>
-      <c r="D33" t="s">
-        <v>136</v>
-      </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H33" s="1">
         <v>42609.625</v>
@@ -2288,27 +2283,27 @@
         <v>42609.645833333336</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" t="s">
         <v>137</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>138</v>
       </c>
-      <c r="D34" t="s">
-        <v>139</v>
-      </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H34" s="1">
         <v>42609.583333333336</v>
@@ -2317,30 +2312,30 @@
         <v>42609.604166666664</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
         <v>140</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>141</v>
       </c>
-      <c r="D35" t="s">
-        <v>142</v>
-      </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
         <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
       </c>
       <c r="H35" s="1">
         <v>42609.708333333336</v>
@@ -2349,30 +2344,30 @@
         <v>42609.729166666664</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" t="s">
         <v>143</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>144</v>
       </c>
-      <c r="D36" t="s">
-        <v>145</v>
-      </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H36" s="1">
         <v>42609.583333333336</v>
@@ -2381,30 +2376,30 @@
         <v>42609.604166666664</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
         <v>146</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>147</v>
       </c>
-      <c r="D37" t="s">
-        <v>148</v>
-      </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
         <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
       </c>
       <c r="H37" s="1">
         <v>42609.583333333336</v>
@@ -2413,30 +2408,30 @@
         <v>42609.604166666664</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
         <v>149</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>150</v>
       </c>
-      <c r="D38" t="s">
-        <v>151</v>
-      </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
         <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
       </c>
       <c r="H38" s="1">
         <v>42609.666666666664</v>
@@ -2445,30 +2440,30 @@
         <v>42609.6875</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" t="s">
         <v>152</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>153</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>154</v>
       </c>
-      <c r="D39" t="s">
-        <v>155</v>
-      </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
         <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
       </c>
       <c r="H39" s="1">
         <v>42609.666666666664</v>
@@ -2477,30 +2472,30 @@
         <v>42609.6875</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" t="s">
         <v>156</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>157</v>
       </c>
-      <c r="D40" t="s">
-        <v>158</v>
-      </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H40" s="1">
         <v>42609.666666666664</v>
@@ -2509,27 +2504,27 @@
         <v>42609.6875</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" t="s">
         <v>159</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>160</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>161</v>
       </c>
-      <c r="D41" t="s">
-        <v>162</v>
-      </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H41" s="1">
         <v>42609.583333333336</v>
@@ -2538,27 +2533,27 @@
         <v>42609.604166666664</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
         <v>163</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>164</v>
       </c>
-      <c r="D42" t="s">
-        <v>165</v>
-      </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H42" s="1">
         <v>42609.8125</v>
@@ -2567,30 +2562,30 @@
         <v>42609.833333333336</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" t="s">
         <v>166</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>167</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>168</v>
       </c>
-      <c r="D43" t="s">
-        <v>169</v>
-      </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
         <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
       </c>
       <c r="H43" s="1">
         <v>42609.625</v>
@@ -2599,7 +2594,7 @@
         <v>42609.645833333336</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2607,22 +2602,22 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" t="s">
         <v>170</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>171</v>
       </c>
-      <c r="D44" t="s">
-        <v>172</v>
-      </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H44" s="1">
         <v>42609.666666666664</v>
@@ -2631,30 +2626,30 @@
         <v>42609.6875</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" t="s">
         <v>173</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>174</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>175</v>
       </c>
-      <c r="D45" t="s">
-        <v>176</v>
-      </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H45" s="1">
         <v>42609.583333333336</v>
@@ -2663,30 +2658,30 @@
         <v>42609.604166666664</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" t="s">
         <v>177</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>178</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>179</v>
       </c>
-      <c r="D46" t="s">
-        <v>180</v>
-      </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H46" s="1">
         <v>42609.666666666664</v>
@@ -2695,27 +2690,27 @@
         <v>42609.6875</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" t="s">
         <v>181</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>182</v>
       </c>
-      <c r="D47" t="s">
-        <v>183</v>
-      </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H47" s="1">
         <v>42609.583333333336</v>
@@ -2724,27 +2719,27 @@
         <v>42609.604166666664</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
         <v>97</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>98</v>
       </c>
-      <c r="D48" t="s">
-        <v>99</v>
-      </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H48" s="1">
         <v>42609.604166666664</v>
@@ -2753,30 +2748,30 @@
         <v>42609.625</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" t="s">
         <v>184</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>185</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>186</v>
       </c>
-      <c r="D49" t="s">
-        <v>187</v>
-      </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H49" s="1">
         <v>42609.583333333336</v>
@@ -2785,30 +2780,30 @@
         <v>42609.604166666664</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" t="s">
         <v>188</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>189</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>190</v>
       </c>
-      <c r="D50" t="s">
-        <v>191</v>
-      </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H50" s="1">
         <v>42609.583333333336</v>
@@ -2817,30 +2812,30 @@
         <v>42609.604166666664</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" t="s">
         <v>192</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>193</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>194</v>
       </c>
-      <c r="D51" t="s">
-        <v>195</v>
-      </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H51" s="1">
         <v>42609.583333333336</v>
@@ -2849,7 +2844,7 @@
         <v>42609.604166666664</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2857,22 +2852,22 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" t="s">
         <v>196</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>197</v>
       </c>
-      <c r="D52" t="s">
-        <v>198</v>
-      </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H52" s="1">
         <v>42609.583333333336</v>
@@ -2881,30 +2876,30 @@
         <v>42609.604166666664</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" t="s">
         <v>199</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
         <v>200</v>
       </c>
-      <c r="C53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" t="s">
-        <v>201</v>
-      </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H53" s="1">
         <v>42609.791666666664</v>
@@ -2913,30 +2908,30 @@
         <v>42609.8125</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" t="s">
         <v>202</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>203</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>204</v>
       </c>
-      <c r="D54" t="s">
-        <v>205</v>
-      </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H54" s="1">
         <v>42609.583333333336</v>
@@ -2945,7 +2940,7 @@
         <v>42609.604166666664</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2953,22 +2948,22 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" t="s">
         <v>206</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>207</v>
       </c>
-      <c r="D55" t="s">
-        <v>208</v>
-      </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H55" s="1">
         <v>42609.625</v>
@@ -2977,30 +2972,30 @@
         <v>42609.645833333336</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" t="s">
         <v>209</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>210</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>211</v>
       </c>
-      <c r="D56" t="s">
-        <v>212</v>
-      </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H56" s="1">
         <v>42609.645833333336</v>
@@ -3009,30 +3004,30 @@
         <v>42609.666666666664</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57" t="s">
         <v>213</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>214</v>
       </c>
-      <c r="D57" t="s">
-        <v>215</v>
-      </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H57" s="1">
         <v>42609.583333333336</v>
@@ -3041,30 +3036,30 @@
         <v>42609.604166666664</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" t="s">
         <v>216</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>217</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>218</v>
       </c>
-      <c r="D58" t="s">
-        <v>219</v>
-      </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H58" s="1">
         <v>42609.583333333336</v>
@@ -3073,30 +3068,30 @@
         <v>42609.604166666664</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>219</v>
+      </c>
+      <c r="B59" t="s">
         <v>220</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>221</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>222</v>
       </c>
-      <c r="D59" t="s">
-        <v>223</v>
-      </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H59" s="1">
         <v>42609.625</v>
@@ -3105,30 +3100,30 @@
         <v>42609.645833333336</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" t="s">
         <v>224</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>225</v>
       </c>
-      <c r="D60" t="s">
-        <v>226</v>
-      </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H60" s="1">
         <v>42609.583333333336</v>
@@ -3137,7 +3132,7 @@
         <v>42609.604166666664</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
